--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Boc</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.633182469832844</v>
+        <v>2.179395</v>
       </c>
       <c r="H2">
-        <v>0.633182469832844</v>
+        <v>6.538185</v>
       </c>
       <c r="I2">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="J2">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.68201246479766</v>
+        <v>1.412261333333333</v>
       </c>
       <c r="N2">
-        <v>0.68201246479766</v>
+        <v>4.236784</v>
       </c>
       <c r="O2">
-        <v>0.01016902360092059</v>
+        <v>0.0207702079890636</v>
       </c>
       <c r="P2">
-        <v>0.01016902360092059</v>
+        <v>0.0207702079890636</v>
       </c>
       <c r="Q2">
-        <v>0.4318383369173679</v>
+        <v>3.07787528856</v>
       </c>
       <c r="R2">
-        <v>0.4318383369173679</v>
+        <v>27.70087759704</v>
       </c>
       <c r="S2">
-        <v>0.003276707804942594</v>
+        <v>0.01006320520586752</v>
       </c>
       <c r="T2">
-        <v>0.003276707804942594</v>
+        <v>0.01006320520586752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.633182469832844</v>
+        <v>2.179395</v>
       </c>
       <c r="H3">
-        <v>0.633182469832844</v>
+        <v>6.538185</v>
       </c>
       <c r="I3">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="J3">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.9919355268007</v>
+        <v>60.17634833333333</v>
       </c>
       <c r="N3">
-        <v>59.9919355268007</v>
+        <v>180.529045</v>
       </c>
       <c r="O3">
-        <v>0.8944989127404525</v>
+        <v>0.8850169875823316</v>
       </c>
       <c r="P3">
-        <v>0.8944989127404525</v>
+        <v>0.8850169875823317</v>
       </c>
       <c r="Q3">
-        <v>37.98584190691241</v>
+        <v>131.148032675925</v>
       </c>
       <c r="R3">
-        <v>37.98584190691241</v>
+        <v>1180.332294083325</v>
       </c>
       <c r="S3">
-        <v>0.2882293997846521</v>
+        <v>0.4287924108130818</v>
       </c>
       <c r="T3">
-        <v>0.2882293997846521</v>
+        <v>0.4287924108130819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.633182469832844</v>
+        <v>2.179395</v>
       </c>
       <c r="H4">
-        <v>0.633182469832844</v>
+        <v>6.538185</v>
       </c>
       <c r="I4">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="J4">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.39369700196011</v>
+        <v>6.405959</v>
       </c>
       <c r="N4">
-        <v>6.39369700196011</v>
+        <v>19.217877</v>
       </c>
       <c r="O4">
-        <v>0.09533206365862695</v>
+        <v>0.0942128044286047</v>
       </c>
       <c r="P4">
-        <v>0.09533206365862695</v>
+        <v>0.09421280442860472</v>
       </c>
       <c r="Q4">
-        <v>4.048376859063953</v>
+        <v>13.961115014805</v>
       </c>
       <c r="R4">
-        <v>4.048376859063953</v>
+        <v>125.650035133245</v>
       </c>
       <c r="S4">
-        <v>0.03071831960575134</v>
+        <v>0.04564628262194196</v>
       </c>
       <c r="T4">
-        <v>0.03071831960575134</v>
+        <v>0.04564628262194197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33185312769801</v>
+        <v>0.7348883333333333</v>
       </c>
       <c r="H5">
-        <v>1.33185312769801</v>
+        <v>2.204665</v>
       </c>
       <c r="I5">
-        <v>0.6777755728046539</v>
+        <v>0.1633732264179005</v>
       </c>
       <c r="J5">
-        <v>0.6777755728046539</v>
+        <v>0.1633732264179005</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.68201246479766</v>
+        <v>1.412261333333333</v>
       </c>
       <c r="N5">
-        <v>0.68201246479766</v>
+        <v>4.236784</v>
       </c>
       <c r="O5">
-        <v>0.01016902360092059</v>
+        <v>0.0207702079890636</v>
       </c>
       <c r="P5">
-        <v>0.01016902360092059</v>
+        <v>0.0207702079890636</v>
       </c>
       <c r="Q5">
-        <v>0.9083404343697923</v>
+        <v>1.037854377484444</v>
       </c>
       <c r="R5">
-        <v>0.9083404343697923</v>
+        <v>9.34068939736</v>
       </c>
       <c r="S5">
-        <v>0.006892315795978</v>
+        <v>0.003393295892544172</v>
       </c>
       <c r="T5">
-        <v>0.006892315795978</v>
+        <v>0.003393295892544173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33185312769801</v>
+        <v>0.7348883333333333</v>
       </c>
       <c r="H6">
-        <v>1.33185312769801</v>
+        <v>2.204665</v>
       </c>
       <c r="I6">
-        <v>0.6777755728046539</v>
+        <v>0.1633732264179005</v>
       </c>
       <c r="J6">
-        <v>0.6777755728046539</v>
+        <v>0.1633732264179005</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.9919355268007</v>
+        <v>60.17634833333333</v>
       </c>
       <c r="N6">
-        <v>59.9919355268007</v>
+        <v>180.529045</v>
       </c>
       <c r="O6">
-        <v>0.8944989127404525</v>
+        <v>0.8850169875823316</v>
       </c>
       <c r="P6">
-        <v>0.8944989127404525</v>
+        <v>0.8850169875823317</v>
       </c>
       <c r="Q6">
-        <v>79.90044696802687</v>
+        <v>44.22289633276944</v>
       </c>
       <c r="R6">
-        <v>79.90044696802687</v>
+        <v>398.006066994925</v>
       </c>
       <c r="S6">
-        <v>0.6062695129558003</v>
+        <v>0.1445880806959765</v>
       </c>
       <c r="T6">
-        <v>0.6062695129558003</v>
+        <v>0.1445880806959765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7348883333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.204665</v>
+      </c>
+      <c r="I7">
+        <v>0.1633732264179005</v>
+      </c>
+      <c r="J7">
+        <v>0.1633732264179005</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.405959</v>
+      </c>
+      <c r="N7">
+        <v>19.217877</v>
+      </c>
+      <c r="O7">
+        <v>0.0942128044286047</v>
+      </c>
+      <c r="P7">
+        <v>0.09421280442860472</v>
+      </c>
+      <c r="Q7">
+        <v>4.707664532911666</v>
+      </c>
+      <c r="R7">
+        <v>42.368980796205</v>
+      </c>
+      <c r="S7">
+        <v>0.01539184982937981</v>
+      </c>
+      <c r="T7">
+        <v>0.01539184982937982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.583934333333333</v>
+      </c>
+      <c r="H8">
+        <v>4.751803</v>
+      </c>
+      <c r="I8">
+        <v>0.3521248749412083</v>
+      </c>
+      <c r="J8">
+        <v>0.3521248749412082</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.412261333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.236784</v>
+      </c>
+      <c r="O8">
+        <v>0.0207702079890636</v>
+      </c>
+      <c r="P8">
+        <v>0.0207702079890636</v>
+      </c>
+      <c r="Q8">
+        <v>2.236929213505778</v>
+      </c>
+      <c r="R8">
+        <v>20.132362921552</v>
+      </c>
+      <c r="S8">
+        <v>0.007313706890651903</v>
+      </c>
+      <c r="T8">
+        <v>0.007313706890651903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.33185312769801</v>
-      </c>
-      <c r="H7">
-        <v>1.33185312769801</v>
-      </c>
-      <c r="I7">
-        <v>0.6777755728046539</v>
-      </c>
-      <c r="J7">
-        <v>0.6777755728046539</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>6.39369700196011</v>
-      </c>
-      <c r="N7">
-        <v>6.39369700196011</v>
-      </c>
-      <c r="O7">
-        <v>0.09533206365862695</v>
-      </c>
-      <c r="P7">
-        <v>0.09533206365862695</v>
-      </c>
-      <c r="Q7">
-        <v>8.515465349613962</v>
-      </c>
-      <c r="R7">
-        <v>8.515465349613962</v>
-      </c>
-      <c r="S7">
-        <v>0.06461374405287562</v>
-      </c>
-      <c r="T7">
-        <v>0.06461374405287562</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.583934333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.751803</v>
+      </c>
+      <c r="I9">
+        <v>0.3521248749412083</v>
+      </c>
+      <c r="J9">
+        <v>0.3521248749412082</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>60.17634833333333</v>
+      </c>
+      <c r="N9">
+        <v>180.529045</v>
+      </c>
+      <c r="O9">
+        <v>0.8850169875823316</v>
+      </c>
+      <c r="P9">
+        <v>0.8850169875823317</v>
+      </c>
+      <c r="Q9">
+        <v>95.31538417979277</v>
+      </c>
+      <c r="R9">
+        <v>857.838457618135</v>
+      </c>
+      <c r="S9">
+        <v>0.3116364960732734</v>
+      </c>
+      <c r="T9">
+        <v>0.3116364960732734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.583934333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.751803</v>
+      </c>
+      <c r="I10">
+        <v>0.3521248749412083</v>
+      </c>
+      <c r="J10">
+        <v>0.3521248749412082</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.405959</v>
+      </c>
+      <c r="N10">
+        <v>19.217877</v>
+      </c>
+      <c r="O10">
+        <v>0.0942128044286047</v>
+      </c>
+      <c r="P10">
+        <v>0.09421280442860472</v>
+      </c>
+      <c r="Q10">
+        <v>10.14661839802567</v>
+      </c>
+      <c r="R10">
+        <v>91.31956558223101</v>
+      </c>
+      <c r="S10">
+        <v>0.03317467197728294</v>
+      </c>
+      <c r="T10">
+        <v>0.03317467197728294</v>
       </c>
     </row>
   </sheetData>
